--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1034.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1034.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.937228721536491</v>
+        <v>1.093070387840271</v>
       </c>
       <c r="B1">
-        <v>3.341146666783745</v>
+        <v>1.005301475524902</v>
       </c>
       <c r="C1">
-        <v>2.812485959604294</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.27061720106325</v>
+        <v>1.996190309524536</v>
       </c>
       <c r="E1">
-        <v>1.368478423631339</v>
+        <v>1.014667630195618</v>
       </c>
     </row>
   </sheetData>
